--- a/data/trans_camb/P24_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-14,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-17,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,97</t>
+          <t>-11,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,43</t>
+          <t>-18,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-33,18</t>
+          <t>-28,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-35,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-18,63</t>
+          <t>-22,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-23,74</t>
+          <t>-8,66</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-22,86</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-28,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-18,17</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 20,32</t>
+          <t>-23,44; 24,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 7,2</t>
+          <t>-36,33; 8,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 3,15</t>
+          <t>-39,23; 4,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 1,37</t>
+          <t>-32,53; 11,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -11,92</t>
+          <t>-38,87; 1,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,4; -17,2</t>
+          <t>-47,36; -9,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 5,35</t>
+          <t>-52,43; -17,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,94; -7,53</t>
+          <t>-41,72; -0,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-34,31; -12,96</t>
+          <t>-23,05; 6,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-35,94; -8,27</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-40,88; -14,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-31,9; -2,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>-45,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-47,49%</t>
+          <t>-56,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-30,41%</t>
+          <t>-34,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-53,7%</t>
+          <t>-35,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-67,42%</t>
+          <t>-57,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,63%</t>
+          <t>-69,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-49,04%</t>
+          <t>-44,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-62,46%</t>
+          <t>-20,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-53,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-66,05%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-42,86%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 122,45</t>
+          <t>-53,95; 120,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,16; 48,51</t>
+          <t>-84,67; 52,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,33; 34,83</t>
+          <t>-90,99; 36,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 2,9</t>
+          <t>-77,27; 68,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,05; -28,42</t>
+          <t>-65,34; 4,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,56; -42,56</t>
+          <t>-79,28; -24,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 18,5</t>
+          <t>-88,06; -42,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,07; -21,74</t>
+          <t>-70,88; -0,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,05; -39,07</t>
+          <t>-48,25; 18,02</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-74,32; -23,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-83,03; -38,4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-64,4; -4,75</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>37,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-12,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,22</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,1</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 30,03</t>
+          <t>-4,92; 45,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 16,61</t>
+          <t>-13,16; 14,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 9,45</t>
+          <t>-13,81; 15,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 12,71</t>
+          <t>6,72; 69,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 9,72</t>
+          <t>-22,79; 14,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 6,24</t>
+          <t>-26,3; 10,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 14,85</t>
+          <t>-28,6; 4,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 9,22</t>
+          <t>-11,22; 27,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 4,1</t>
+          <t>-10,3; 23,08</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-16,12; 9,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-19,2; 6,75</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 45,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
+          <t>106,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>325,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-13,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>-15,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>-32,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-12,99%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-24,61%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>91,56%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 408,34</t>
+          <t>-45,16; 1409,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 240,89</t>
+          <t>-70,95; 302,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,91; 144,32</t>
+          <t>-69,27; 324,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,58; 45,37</t>
+          <t>17,14; 1761,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 34,98</t>
+          <t>-48,17; 52,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 23,39</t>
+          <t>-52,16; 36,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 75,96</t>
+          <t>-61,77; 16,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 52,47</t>
+          <t>-23,47; 101,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,76; 21,41</t>
+          <t>-35,69; 134,13</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-50,2; 49,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-59,96; 39,1</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,94; 265,89</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,47</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-10,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-10,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,34</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 5,47</t>
+          <t>-9,68; 21,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 6,52</t>
+          <t>-12,83; 16,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 4,9</t>
+          <t>-15,59; 11,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 7,19</t>
+          <t>-5,27; 24,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,06; -1,02</t>
+          <t>-17,38; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 7,23</t>
+          <t>-23,27; 4,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 4,07</t>
+          <t>-17,95; 9,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 0,01</t>
+          <t>-24,42; 2,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 3,45</t>
+          <t>-9,41; 11,55</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 5,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-14,37; 6,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 7,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,09%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,59%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,39%</t>
+          <t>-11,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-31,33%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>-27,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>-13,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,61%</t>
+          <t>-27,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-17,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-13,76%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-8,39%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,01; 38,64</t>
+          <t>-36,48; 179,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 43,66</t>
+          <t>-50,37; 145,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 31,96</t>
+          <t>-65,79; 94,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 23,73</t>
+          <t>-22,93; 213,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,03; -3,84</t>
+          <t>-37,87; 31,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 23,78</t>
+          <t>-50,32; 13,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 15,63</t>
+          <t>-38,38; 29,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 0,43</t>
+          <t>-52,17; 6,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 13,79</t>
+          <t>-25,42; 47,18</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-42,14; 21,11</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-38,95; 27,54</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-36,09; 29,19</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 10,92</t>
+          <t>-7,68; 19,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 11,89</t>
+          <t>-6,61; 19,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 10,37</t>
+          <t>-9,54; 17,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 11,33</t>
+          <t>-8,36; 19,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 13,88</t>
+          <t>-8,93; 17,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 14,32</t>
+          <t>-10,12; 16,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 9,74</t>
+          <t>-11,37; 14,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 10,53</t>
+          <t>-13,24; 12,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 9,02</t>
+          <t>-5,15; 14,28</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 14,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 11,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 11,85</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13,61%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 64,71</t>
+          <t>-29,29; 140,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 71,0</t>
+          <t>-26,0; 140,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 59,84</t>
+          <t>-35,78; 125,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 35,54</t>
+          <t>-32,57; 141,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 42,49</t>
+          <t>-20,68; 59,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 45,52</t>
+          <t>-23,96; 55,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 36,69</t>
+          <t>-27,51; 48,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 41,43</t>
+          <t>-31,72; 41,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 34,17</t>
+          <t>-15,46; 55,58</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; 57,99</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-23,51; 46,41</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 49,74</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,28</t>
+          <t>17,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>15,09</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15,64</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>9,46</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>14,49</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 27,33</t>
+          <t>0,1; 33,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,35; 26,99</t>
+          <t>-0,44; 34,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 10,02</t>
+          <t>-16,51; 9,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 15,37</t>
+          <t>-12,73; 14,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,88; 29,4</t>
+          <t>-19,14; 16,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,39; 31,92</t>
+          <t>-8,53; 27,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 16,36</t>
+          <t>-4,31; 33,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,32; 24,75</t>
+          <t>-13,41; 22,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 18,19</t>
+          <t>-1,74; 23,18</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 28,06</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 16,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 15,88</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>67,9%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>80,64%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-14,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>38,58%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>59,08%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>19,66%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 216,35</t>
+          <t>-3,95; 248,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9,78; 212,69</t>
+          <t>-3,1; 254,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 88,87</t>
+          <t>-63,98; 73,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 85,75</t>
+          <t>-49,51; 112,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,16; 158,58</t>
+          <t>-47,62; 79,33</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,46; 172,37</t>
+          <t>-23,17; 130,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 98,02</t>
+          <t>-14,25; 148,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,67; 135,07</t>
+          <t>-34,51; 105,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,39; 104,1</t>
+          <t>-7,52; 121,45</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 141,67</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-20,43; 86,77</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-25,6; 84,97</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>19,77</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>12,88</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>32,14</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>11,67</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>13,35</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10,99</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>28,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 12,93</t>
+          <t>-5,62; 23,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 14,73</t>
+          <t>-1,58; 29,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 17,48</t>
+          <t>-1,0; 30,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 21,16</t>
+          <t>3,77; 37,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 14,39</t>
+          <t>-3,94; 33,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 16,16</t>
+          <t>-5,86; 32,58</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 14,19</t>
+          <t>-11,02; 27,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 12,44</t>
+          <t>10,74; 53,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 13,31</t>
+          <t>-1,36; 23,71</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 26,15</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 23,28</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 43,16</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>101,3%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>178,46%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>170,54%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>255,89%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>139,76%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>72,89%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>83,37%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>68,67%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>176,12%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 141,09</t>
+          <t>-63,41; 1047,29</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 167,05</t>
+          <t>-35,98; 1127,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 176,55</t>
+          <t>-31,09; 1277,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 113,11</t>
+          <t>13,2; 1402,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 79,41</t>
+          <t>-16,24; 262,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 78,89</t>
+          <t>-20,29; 245,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 88,65</t>
+          <t>-34,57; 208,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 77,6</t>
+          <t>25,94; 395,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 82,86</t>
+          <t>-7,51; 223,23</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 258,38</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-10,39; 230,39</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>56,9; 412,94</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 9,21</t>
+          <t>1,78; 17,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,35</t>
+          <t>-2,0; 11,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 2,37</t>
+          <t>-7,04; 5,47</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 4,09</t>
+          <t>3,59; 24,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 1,51</t>
+          <t>-8,67; 5,52</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 2,38</t>
+          <t>-10,88; 3,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,1</t>
+          <t>-11,96; 1,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,49</t>
+          <t>-5,17; 9,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,14</t>
+          <t>-1,91; 8,73</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 4,65</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 1,14</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 12,4</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>49,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>-11,39%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-12,62%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 53,94</t>
+          <t>8,44; 117,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 44,18</t>
+          <t>-9,47; 74,13</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 13,69</t>
+          <t>-34,15; 36,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 12,76</t>
+          <t>16,44; 157,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 4,25</t>
+          <t>-21,42; 17,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 7,02</t>
+          <t>-27,68; 9,69</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 16,18</t>
+          <t>-29,59; 4,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 9,66</t>
+          <t>-13,14; 30,57</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 0,47</t>
+          <t>-6,14; 34,73</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 18,36</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-26,97; 4,49</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 46,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
